--- a/صيدليات دكتور مصطفي طلعت_2026-01-09_15-02.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-09_15-02.xlsx
@@ -53,12 +53,18 @@
     <t>ATOREZA 20/10MG 21 F.C. TAB.</t>
   </si>
   <si>
+    <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
+  </si>
+  <si>
+    <t>3:5</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
     <t>BI ALCOFAN 150 MG 30 TABS.</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>BLADOGRA XR 50MG 30 F.C. TABS.</t>
   </si>
   <si>
@@ -84,6 +90,9 @@
   </si>
   <si>
     <t>DELAREX 5MG 30TAB</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE INAD PHARMA 3 AMP</t>
   </si>
   <si>
     <t>DICLOPRO 150 MG ID 20 TABS.</t>
@@ -856,17 +865,17 @@
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c t="s" r="H7" s="8">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="9">
-        <v>27</v>
+        <v>9.5</v>
       </c>
       <c r="M7" s="9"/>
       <c t="s" r="N7" s="7">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1">
@@ -874,7 +883,7 @@
         <v>5</v>
       </c>
       <c t="s" r="B8" s="7">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -882,17 +891,17 @@
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c t="s" r="H8" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="9">
-        <v>357</v>
+        <v>27</v>
       </c>
       <c r="M8" s="9"/>
       <c t="s" r="N8" s="7">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="24.75" customHeight="1">
@@ -900,7 +909,7 @@
         <v>6</v>
       </c>
       <c t="s" r="B9" s="7">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -908,13 +917,13 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c t="s" r="H9" s="8">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="9">
-        <v>22</v>
+        <v>357</v>
       </c>
       <c r="M9" s="9"/>
       <c t="s" r="N9" s="7">
@@ -926,7 +935,7 @@
         <v>7</v>
       </c>
       <c t="s" r="B10" s="7">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -934,13 +943,13 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c t="s" r="H10" s="8">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="9">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="M10" s="9"/>
       <c t="s" r="N10" s="7">
@@ -952,7 +961,7 @@
         <v>8</v>
       </c>
       <c t="s" r="B11" s="7">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -960,17 +969,17 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c t="s" r="H11" s="8">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="9">
-        <v>43.329999999999998</v>
+        <v>62</v>
       </c>
       <c r="M11" s="9"/>
       <c t="s" r="N11" s="7">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -986,17 +995,17 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c t="s" r="H12" s="8">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="9">
-        <v>44</v>
+        <v>43.329999999999998</v>
       </c>
       <c r="M12" s="9"/>
       <c t="s" r="N12" s="7">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="25.5" customHeight="1">
@@ -1004,7 +1013,7 @@
         <v>10</v>
       </c>
       <c t="s" r="B13" s="7">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -1012,17 +1021,17 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c t="s" r="H13" s="8">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="9">
-        <v>27.5</v>
+        <v>44</v>
       </c>
       <c r="M13" s="9"/>
       <c t="s" r="N13" s="7">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" ht="24.75" customHeight="1">
@@ -1038,17 +1047,17 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c t="s" r="H14" s="8">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="9">
-        <v>24</v>
+        <v>27.5</v>
       </c>
       <c r="M14" s="9"/>
       <c t="s" r="N14" s="7">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="25.5" customHeight="1">
@@ -1056,7 +1065,7 @@
         <v>12</v>
       </c>
       <c t="s" r="B15" s="7">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -1064,17 +1073,17 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c t="s" r="H15" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="9">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="M15" s="9"/>
       <c t="s" r="N15" s="7">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="24.75" customHeight="1">
@@ -1082,7 +1091,7 @@
         <v>13</v>
       </c>
       <c t="s" r="B16" s="7">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -1090,17 +1099,17 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c t="s" r="H16" s="8">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="M16" s="9"/>
       <c t="s" r="N16" s="7">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1116,13 +1125,13 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c t="s" r="H17" s="8">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="9">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="M17" s="9"/>
       <c t="s" r="N17" s="7">
@@ -1134,7 +1143,7 @@
         <v>15</v>
       </c>
       <c t="s" r="B18" s="7">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -1142,17 +1151,17 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c t="s" r="H18" s="8">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9">
-        <v>132</v>
+        <v>16</v>
       </c>
       <c r="M18" s="9"/>
       <c t="s" r="N18" s="7">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="24.75" customHeight="1">
@@ -1168,13 +1177,13 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c t="s" r="H19" s="8">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9">
-        <v>90</v>
+        <v>19</v>
       </c>
       <c r="M19" s="9"/>
       <c t="s" r="N19" s="7">
@@ -1186,7 +1195,7 @@
         <v>17</v>
       </c>
       <c t="s" r="B20" s="7">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -1200,11 +1209,11 @@
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="9">
-        <v>177</v>
+        <v>132</v>
       </c>
       <c r="M20" s="9"/>
       <c t="s" r="N20" s="7">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="24.75" customHeight="1">
@@ -1212,7 +1221,7 @@
         <v>18</v>
       </c>
       <c t="s" r="B21" s="7">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -1220,17 +1229,17 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c t="s" r="H21" s="8">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
-        <v>14.25</v>
+        <v>90</v>
       </c>
       <c r="M21" s="9"/>
       <c t="s" r="N21" s="7">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1238,7 +1247,7 @@
         <v>19</v>
       </c>
       <c t="s" r="B22" s="7">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -1246,17 +1255,17 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c t="s" r="H22" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>78</v>
+        <v>177</v>
       </c>
       <c r="M22" s="9"/>
       <c t="s" r="N22" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" ht="25.5" customHeight="1">
@@ -1264,7 +1273,7 @@
         <v>20</v>
       </c>
       <c t="s" r="B23" s="7">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -1272,17 +1281,17 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>27.440000000000001</v>
+        <v>14.25</v>
       </c>
       <c r="M23" s="9"/>
       <c t="s" r="N23" s="7">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="24.75" customHeight="1">
@@ -1290,7 +1299,7 @@
         <v>21</v>
       </c>
       <c t="s" r="B24" s="7">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -1298,17 +1307,17 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="M24" s="9"/>
       <c t="s" r="N24" s="7">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" ht="25.5" customHeight="1">
@@ -1316,7 +1325,7 @@
         <v>22</v>
       </c>
       <c t="s" r="B25" s="7">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -1324,17 +1333,17 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c t="s" r="H25" s="8">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>56</v>
+        <v>27.440000000000001</v>
       </c>
       <c r="M25" s="9"/>
       <c t="s" r="N25" s="7">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="24.75" customHeight="1">
@@ -1342,7 +1351,7 @@
         <v>23</v>
       </c>
       <c t="s" r="B26" s="7">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -1356,11 +1365,11 @@
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>96</v>
+        <v>38</v>
       </c>
       <c r="M26" s="9"/>
       <c t="s" r="N26" s="7">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1368,7 +1377,7 @@
         <v>24</v>
       </c>
       <c t="s" r="B27" s="7">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -1376,13 +1385,13 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c t="s" r="H27" s="8">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="M27" s="9"/>
       <c t="s" r="N27" s="7">
@@ -1394,7 +1403,7 @@
         <v>25</v>
       </c>
       <c t="s" r="B28" s="7">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -1402,17 +1411,17 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c t="s" r="H28" s="8">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>27</v>
+        <v>96</v>
       </c>
       <c r="M28" s="9"/>
       <c t="s" r="N28" s="7">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="24.75" customHeight="1">
@@ -1434,7 +1443,7 @@
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>160.05000000000001</v>
+        <v>27</v>
       </c>
       <c r="M29" s="9"/>
       <c t="s" r="N29" s="7">
@@ -1460,11 +1469,11 @@
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="M30" s="9"/>
       <c t="s" r="N30" s="7">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="24.75" customHeight="1">
@@ -1480,13 +1489,13 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>86.5</v>
+        <v>160.05000000000001</v>
       </c>
       <c r="M31" s="9"/>
       <c t="s" r="N31" s="7">
@@ -1506,13 +1515,13 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="M32" s="9"/>
       <c t="s" r="N32" s="7">
@@ -1524,7 +1533,7 @@
         <v>30</v>
       </c>
       <c t="s" r="B33" s="7">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -1532,17 +1541,17 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>62</v>
+        <v>86.5</v>
       </c>
       <c r="M33" s="9"/>
       <c t="s" r="N33" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" ht="24.75" customHeight="1">
@@ -1550,7 +1559,7 @@
         <v>31</v>
       </c>
       <c t="s" r="B34" s="7">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -1558,17 +1567,17 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>282</v>
+        <v>67</v>
       </c>
       <c r="M34" s="9"/>
       <c t="s" r="N34" s="7">
-        <v>41</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" ht="25.5" customHeight="1">
@@ -1576,7 +1585,7 @@
         <v>32</v>
       </c>
       <c t="s" r="B35" s="7">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -1584,17 +1593,17 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M35" s="9"/>
       <c t="s" r="N35" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" ht="24.75" customHeight="1">
@@ -1602,7 +1611,7 @@
         <v>33</v>
       </c>
       <c t="s" r="B36" s="7">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -1610,17 +1619,17 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>123</v>
+        <v>282</v>
       </c>
       <c r="M36" s="9"/>
       <c t="s" r="N36" s="7">
-        <v>8</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1628,7 +1637,7 @@
         <v>34</v>
       </c>
       <c t="s" r="B37" s="7">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -1636,13 +1645,13 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="M37" s="9"/>
       <c t="s" r="N37" s="7">
@@ -1654,7 +1663,7 @@
         <v>35</v>
       </c>
       <c t="s" r="B38" s="7">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -1662,17 +1671,17 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>26.100000000000001</v>
+        <v>123</v>
       </c>
       <c r="M38" s="9"/>
       <c t="s" r="N38" s="7">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39" ht="24.75" customHeight="1">
@@ -1680,7 +1689,7 @@
         <v>36</v>
       </c>
       <c t="s" r="B39" s="7">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -1688,13 +1697,13 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="M39" s="9"/>
       <c t="s" r="N39" s="7">
@@ -1714,17 +1723,17 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>96</v>
+        <v>26.100000000000001</v>
       </c>
       <c r="M40" s="9"/>
       <c t="s" r="N40" s="7">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="24.75" customHeight="1">
@@ -1732,7 +1741,7 @@
         <v>38</v>
       </c>
       <c t="s" r="B41" s="7">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -1740,51 +1749,103 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="M41" s="9"/>
       <c t="s" r="N41" s="7">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="42" ht="26.25" customHeight="1">
-      <c r="K42" s="10">
-        <v>2946.9899999999998</v>
-      </c>
-      <c r="L42" s="10"/>
-      <c r="M42" s="10"/>
-      <c r="N42" s="10"/>
-    </row>
-    <row r="43" ht="16.5" customHeight="1">
-      <c t="s" r="A43" s="11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="A42" s="6">
+        <v>39</v>
+      </c>
+      <c t="s" r="B42" s="7">
+        <v>58</v>
+      </c>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c t="s" r="H42" s="8">
         <v>59</v>
       </c>
-      <c r="B43" s="11"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c t="s" r="F43" s="12">
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="9">
+        <v>96</v>
+      </c>
+      <c r="M42" s="9"/>
+      <c t="s" r="N42" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" ht="25.5" customHeight="1">
+      <c r="A43" s="6">
+        <v>40</v>
+      </c>
+      <c t="s" r="B43" s="7">
         <v>60</v>
       </c>
-      <c r="G43" s="12"/>
-      <c r="H43" s="13"/>
-      <c t="s" r="I43" s="14">
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c t="s" r="H43" s="8">
         <v>61</v>
       </c>
-      <c r="J43" s="14"/>
-      <c r="K43" s="14"/>
-      <c r="L43" s="14"/>
-      <c r="M43" s="14"/>
-      <c r="N43" s="14"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="9">
+        <v>10</v>
+      </c>
+      <c r="M43" s="9"/>
+      <c t="s" r="N43" s="7">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="K44" s="10">
+        <v>2970.4899999999998</v>
+      </c>
+      <c r="L44" s="10"/>
+      <c r="M44" s="10"/>
+      <c r="N44" s="10"/>
+    </row>
+    <row r="45" ht="16.5" customHeight="1">
+      <c t="s" r="A45" s="11">
+        <v>62</v>
+      </c>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c t="s" r="F45" s="12">
+        <v>63</v>
+      </c>
+      <c r="G45" s="12"/>
+      <c r="H45" s="13"/>
+      <c t="s" r="I45" s="14">
+        <v>64</v>
+      </c>
+      <c r="J45" s="14"/>
+      <c r="K45" s="14"/>
+      <c r="L45" s="14"/>
+      <c r="M45" s="14"/>
+      <c r="N45" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="125">
+  <mergeCells count="131">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -1906,10 +1967,16 @@
     <mergeCell ref="B41:G41"/>
     <mergeCell ref="H41:K41"/>
     <mergeCell ref="L41:M41"/>
-    <mergeCell ref="K42:N42"/>
-    <mergeCell ref="A43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="I43:N43"/>
+    <mergeCell ref="B42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="B43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="K44:N44"/>
+    <mergeCell ref="A45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="I45:N45"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
